--- a/BalanceSheet/SYK_bal.xlsx
+++ b/BalanceSheet/SYK_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-73000000.0</v>
+        <v>3473000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>181000000.0</v>
+        <v>3494000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>27000000.0</v>
+        <v>3459000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-59000000.0</v>
+        <v>3442000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-122000000.0</v>
+        <v>3359000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2980000000.0</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-37000000.0</v>
+        <v>767000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>126000000.0</v>
+        <v>810000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>8000000.0</v>
+        <v>647000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-97000000.0</v>
+        <v>635000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>63000000.0</v>
+        <v>736000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>675000000.0</v>
@@ -3053,7 +3053,7 @@
         <v>-1519000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>48000000.0</v>
+        <v>-1413000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>-1627000000.0</v>
@@ -4639,7 +4639,7 @@
         <v>6854000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>7052000000.0</v>
+        <v>6665000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>6379000000.0</v>
@@ -4766,7 +4766,7 @@
         <v>10902000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>11477000000.0</v>
+        <v>11090000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>8415000000.0</v>
